--- a/documents/Esimerkki Java, Sprintin tehtävälista ja julkaisukäyrä uus.xlsx
+++ b/documents/Esimerkki Java, Sprintin tehtävälista ja julkaisukäyrä uus.xlsx
@@ -134,9 +134,6 @@
     <t>Ukko liikkuu animoidusti</t>
   </si>
   <si>
-    <t>Jari +Late + Jesse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Olli  </t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Late</t>
   </si>
   <si>
-    <t>Olli + late</t>
-  </si>
-  <si>
     <t>Jari</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>Suoritetut työtunnit Roope</t>
+  </si>
+  <si>
+    <t>Olli</t>
+  </si>
+  <si>
+    <t>Jari + Jesse</t>
   </si>
 </sst>
 </file>
@@ -720,11 +720,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90508288"/>
-        <c:axId val="90530944"/>
+        <c:axId val="97324032"/>
+        <c:axId val="97342592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90508288"/>
+        <c:axId val="97324032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90530944"/>
+        <c:crossAx val="97342592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90530944"/>
+        <c:axId val="97342592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90508288"/>
+        <c:crossAx val="97324032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1338,7 +1338,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E2" s="26">
         <v>8</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="26">
         <v>3</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="26">
         <v>4</v>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>9</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="27">
         <v>8</v>
@@ -1529,7 +1529,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1549,7 +1549,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1585,7 +1585,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="27">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1817,19 +1817,19 @@
         <v>22</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>51</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>26</v>
@@ -2086,7 +2086,7 @@
     <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="str">
         <f>'Sprintin tehtävälista'!D2</f>
-        <v>Jari +Late + Jesse</v>
+        <v>Jari + Jesse</v>
       </c>
       <c r="B11" s="30" t="str">
         <f>'Sprintin tehtävälista'!B2</f>
@@ -2270,7 +2270,7 @@
     <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="str">
         <f>'Sprintin tehtävälista'!D8</f>
-        <v>Olli + late</v>
+        <v>Olli</v>
       </c>
       <c r="B17" s="30" t="str">
         <f>'Sprintin tehtävälista'!B8</f>

--- a/documents/Esimerkki Java, Sprintin tehtävälista ja julkaisukäyrä uus.xlsx
+++ b/documents/Esimerkki Java, Sprintin tehtävälista ja julkaisukäyrä uus.xlsx
@@ -561,7 +561,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -720,11 +719,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97324032"/>
-        <c:axId val="97342592"/>
+        <c:axId val="50656768"/>
+        <c:axId val="50658688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97324032"/>
+        <c:axId val="50656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,14 +745,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97342592"/>
+        <c:crossAx val="50658688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97342592"/>
+        <c:axId val="50658688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,21 +782,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97324032"/>
+        <c:crossAx val="50656768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1338,7 +1334,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1609,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1627,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,7 +1904,7 @@
       </c>
       <c r="C4" s="28">
         <f ca="1">TODAY()</f>
-        <v>41360</v>
+        <v>41366</v>
       </c>
       <c r="D4" s="8"/>
       <c r="I4" s="3"/>
@@ -2408,7 +2404,7 @@
       </c>
       <c r="D20" s="32" t="str">
         <f>'Sprintin tehtävälista'!G11</f>
-        <v>Kesken</v>
+        <v>Done</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="2" t="e">
@@ -2450,7 +2446,7 @@
       </c>
       <c r="D21" s="32" t="str">
         <f>'Sprintin tehtävälista'!G12</f>
-        <v>Kesken</v>
+        <v>Done</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="2" t="e">
@@ -2492,7 +2488,7 @@
       </c>
       <c r="D22" s="32" t="str">
         <f>'Sprintin tehtävälista'!G13</f>
-        <v>Kesken</v>
+        <v>Done</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="2" t="e">
